--- a/results/MVSE/acm/MVSE_acm<l05>AllRes_89.49.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l05>AllRes_89.49.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,7 +811,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -823,11 +823,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>acm</t>
@@ -842,7 +838,7 @@
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -864,27 +860,27 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.16</v>
+        <v>0.42</v>
       </c>
       <c r="O6" t="n">
-        <v>88.65000000000001</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="P6" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.18</v>
+        <v>0.39</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_48_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-13_30_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -931,33 +927,33 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="O7" t="n">
-        <v>88.29000000000001</v>
+        <v>88.65000000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="Q7" t="n">
         <v>0.18</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_17_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_48_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -969,11 +965,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>acm</t>
@@ -981,14 +973,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -1003,34 +995,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.24</v>
+        <v>0.42</v>
       </c>
       <c r="O8" t="n">
-        <v>88.18000000000001</v>
+        <v>88.36</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_02_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-14_18_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1054,14 +1046,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1076,34 +1068,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="O9" t="n">
-        <v>87.94</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="P9" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_15_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_17_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1145,34 +1137,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="O10" t="n">
-        <v>87.91</v>
+        <v>88.25</v>
       </c>
       <c r="P10" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_58_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-13_52_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1184,7 +1176,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1192,14 +1188,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1219,20 +1215,20 @@
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="O11" t="n">
-        <v>87.52</v>
+        <v>88.18000000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.14</v>
+        <v>0.76</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_32_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_02_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1241,7 +1237,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1253,11 +1249,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1272,7 +1264,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1294,27 +1286,27 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="O12" t="n">
-        <v>87.48999999999999</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="P12" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6</v>
+        <v>0.37</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_23_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-14_44_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1338,7 +1330,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1360,34 +1352,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="O13" t="n">
-        <v>87.31</v>
+        <v>87.94</v>
       </c>
       <c r="P13" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.93</v>
+        <v>0.15</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_04_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_15_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1399,11 +1391,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1418,7 +1406,7 @@
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1433,34 +1421,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>3</v>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="O14" t="n">
-        <v>86.95999999999999</v>
+        <v>87.91</v>
       </c>
       <c r="P14" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.97</v>
+        <v>1.11</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_50_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_58_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1472,11 +1460,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1484,14 +1468,14 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1511,20 +1495,20 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="O15" t="n">
-        <v>86.86</v>
+        <v>87.52</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.45</v>
+        <v>1.14</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_41_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_32_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="n">
@@ -1533,7 +1517,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1564,7 +1548,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1580,33 +1564,33 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.49</v>
+        <v>0.22</v>
       </c>
       <c r="O16" t="n">
-        <v>80.17</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="P16" t="n">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.970000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_26_13', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_23_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1630,14 +1614,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1652,28 +1636,320 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O17" t="n">
+        <v>87.31</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_04_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>128</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O18" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_50_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O19" t="n">
+        <v>86.86</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_41_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>128</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O20" t="n">
+        <v>80.17</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_26_13', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>128</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O21" t="n">
         <v>79.76000000000001</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P21" t="n">
         <v>0.59</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q21" t="n">
         <v>14.08</v>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_49_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S17" t="n">
+      <c r="S21" t="n">
         <v>8192</v>
       </c>
     </row>

--- a/results/MVSE/acm/MVSE_acm<l05>AllRes_89.49.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l05>AllRes_89.49.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1318,11 +1318,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1337,7 +1333,7 @@
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1357,29 +1353,29 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="O13" t="n">
-        <v>87.94</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.15</v>
+        <v>1.21</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_15_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-07_54_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1391,7 +1387,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1399,14 +1399,14 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1426,20 +1426,20 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="O14" t="n">
-        <v>87.91</v>
+        <v>87.94</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.11</v>
+        <v>0.15</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_58_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_15_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1448,7 +1448,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1495,20 +1495,20 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="O15" t="n">
-        <v>87.52</v>
+        <v>87.91</v>
       </c>
       <c r="P15" t="n">
         <v>0.05</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_32_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_58_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="n">
@@ -1517,7 +1517,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1529,11 +1529,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1548,7 +1544,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1563,34 +1559,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>3</v>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="O16" t="n">
-        <v>87.48999999999999</v>
+        <v>87.52</v>
       </c>
       <c r="P16" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6</v>
+        <v>1.14</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_23_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_32_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1637,33 +1633,33 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="O17" t="n">
-        <v>87.31</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="P17" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.93</v>
+        <v>0.6</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_04_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_23_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1694,7 +1690,7 @@
         <v>128</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" t="n">
         <v>50</v>
@@ -1710,33 +1706,33 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="O18" t="n">
-        <v>86.95999999999999</v>
+        <v>87.31</v>
       </c>
       <c r="P18" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.97</v>
+        <v>2.93</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_50_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_04_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1760,7 +1756,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1782,34 +1778,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="O19" t="n">
-        <v>86.86</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="P19" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.45</v>
+        <v>0.97</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_41_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S19" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_50_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1833,7 +1829,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1855,34 +1851,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.49</v>
+        <v>0.26</v>
       </c>
       <c r="O20" t="n">
-        <v>80.17</v>
+        <v>86.86</v>
       </c>
       <c r="P20" t="n">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="Q20" t="n">
-        <v>8.970000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_26_13', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_41_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1906,7 +1902,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1928,28 +1924,101 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O21" t="n">
+        <v>80.17</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_26_13', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>128</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O22" t="n">
         <v>79.76000000000001</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P22" t="n">
         <v>0.59</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q22" t="n">
         <v>14.08</v>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_49_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S21" t="n">
+      <c r="S22" t="n">
         <v>8192</v>
       </c>
     </row>

--- a/results/MVSE/acm/MVSE_acm<l05>AllRes_89.49.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l05>AllRes_89.49.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -583,11 +583,11 @@
         <v>0.03</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-21_26_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_49_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -669,7 +669,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -689,14 +689,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -716,20 +716,20 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="O4" t="n">
-        <v>89.25</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-21_54_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_41_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -738,7 +738,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -750,11 +750,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>acm</t>
@@ -769,7 +765,7 @@
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -789,20 +785,20 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="O5" t="n">
-        <v>88.87</v>
+        <v>89.25</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.37</v>
+        <v>0.21</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_25_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_16_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -811,7 +807,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -823,7 +819,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>acm</t>
@@ -831,14 +831,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -853,34 +853,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="O6" t="n">
-        <v>88.84999999999999</v>
+        <v>88.87</v>
       </c>
       <c r="P6" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-13_30_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_25_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -892,11 +892,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>acm</t>
@@ -911,7 +907,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -927,33 +923,33 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="O7" t="n">
-        <v>88.65000000000001</v>
+        <v>88.67</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.18</v>
+        <v>0.65</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_48_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_07_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -965,7 +961,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>acm</t>
@@ -980,7 +980,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -996,33 +996,33 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.42</v>
+        <v>0.16</v>
       </c>
       <c r="O8" t="n">
-        <v>88.36</v>
+        <v>88.65000000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-14_18_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_48_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1034,11 +1034,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1053,7 +1049,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1075,27 +1071,27 @@
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="O9" t="n">
-        <v>88.29000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_17_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_33_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1122,7 +1118,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1138,33 +1134,33 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.45</v>
+        <v>0.21</v>
       </c>
       <c r="O10" t="n">
-        <v>88.25</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="P10" t="n">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-13_52_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_02_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1188,7 +1184,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1210,34 +1206,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="O11" t="n">
-        <v>88.18000000000001</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="P11" t="n">
         <v>0.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.76</v>
+        <v>0.18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_02_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_17_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1249,7 +1245,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1257,14 +1257,14 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1279,34 +1279,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>3</v>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="O12" t="n">
-        <v>88.01000000000001</v>
+        <v>88.18000000000001</v>
       </c>
       <c r="P12" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.37</v>
+        <v>0.76</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-14_44_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_02_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1326,14 +1326,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1348,30 +1348,30 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="O13" t="n">
-        <v>87.98999999999999</v>
+        <v>88.17</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.21</v>
+        <v>0.49</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-07_54_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_44_13', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1448,7 +1448,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1504,11 +1504,11 @@
         <v>0.05</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_58_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_51_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="n">
@@ -1517,7 +1517,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1559,34 +1559,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="O16" t="n">
-        <v>87.52</v>
+        <v>87.78</v>
       </c>
       <c r="P16" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.14</v>
+        <v>0.68</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_32_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_12_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1598,11 +1598,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1610,14 +1606,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1632,34 +1628,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>3</v>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="O17" t="n">
-        <v>87.48999999999999</v>
+        <v>87.52</v>
       </c>
       <c r="P17" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.6</v>
+        <v>1.27</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_23_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_21_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1706,33 +1702,33 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="O18" t="n">
-        <v>87.31</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="P18" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.93</v>
+        <v>0.6</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_04_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_23_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1744,11 +1740,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1756,14 +1748,14 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>128</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I19" t="n">
         <v>50</v>
@@ -1778,34 +1770,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>3</v>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="O19" t="n">
-        <v>86.95999999999999</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="P19" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.97</v>
+        <v>1.2</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_50_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_20_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1829,14 +1821,14 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>128</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" t="n">
         <v>50</v>
@@ -1851,34 +1843,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="O20" t="n">
-        <v>86.86</v>
+        <v>87.31</v>
       </c>
       <c r="P20" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.45</v>
+        <v>2.93</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_41_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S20" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_04_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1925,33 +1917,33 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
       <c r="O21" t="n">
-        <v>80.17</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="P21" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.970000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_26_13', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_50_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1963,62 +1955,277 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>128</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I22" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O22" t="n">
+        <v>86.86</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_41_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>moco</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>acm</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>NCEK</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>128</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="G23" t="n">
+        <v>128</v>
+      </c>
+      <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>50</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>WL_0_0_1</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="I23" t="n">
+        <v>50</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O23" t="n">
+        <v>86.86</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_41_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>128</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>50</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O24" t="n">
+        <v>80.17</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_26_13', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>128</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O25" t="n">
         <v>79.76000000000001</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P25" t="n">
         <v>0.59</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q25" t="n">
         <v>14.08</v>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_49_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S22" t="n">
+      <c r="S25" t="n">
         <v>8192</v>
       </c>
     </row>

--- a/results/MVSE/acm/MVSE_acm<l05>AllRes_89.49.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l05>AllRes_89.49.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,7 +596,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -608,11 +608,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>acm</t>
@@ -627,7 +623,7 @@
         <v>128</v>
       </c>
       <c r="H3" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="I3" t="n">
         <v>50</v>
@@ -647,20 +643,20 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="O3" t="n">
-        <v>89.33</v>
+        <v>89.38</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-17_10_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_15_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -669,7 +665,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -696,7 +692,7 @@
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -716,20 +712,20 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="O4" t="n">
-        <v>89.29000000000001</v>
+        <v>89.36</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.12</v>
+        <v>0.6</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_41_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_28_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -738,7 +734,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -750,7 +746,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>acm</t>
@@ -765,7 +765,7 @@
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -785,20 +785,20 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="O5" t="n">
-        <v>89.25</v>
+        <v>89.33</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_16_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-17_10_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -807,7 +807,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -819,11 +819,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>acm</t>
@@ -838,7 +834,7 @@
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -858,20 +854,20 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="O6" t="n">
-        <v>88.87</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_25_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_41_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S6" t="n">
@@ -880,7 +876,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -900,14 +896,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -922,34 +918,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>3</v>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="O7" t="n">
-        <v>88.67</v>
+        <v>89.25</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.65</v>
+        <v>0.21</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_07_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_16_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -961,11 +957,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>acm</t>
@@ -973,14 +965,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -995,34 +987,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="O8" t="n">
-        <v>88.65000000000001</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.18</v>
+        <v>0.71</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_48_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_42_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1034,7 +1026,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1042,14 +1038,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1064,34 +1060,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>3</v>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="O9" t="n">
-        <v>88.5</v>
+        <v>88.87</v>
       </c>
       <c r="P9" t="n">
         <v>0.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.06</v>
+        <v>0.37</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_33_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_25_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1118,7 +1114,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1140,27 +1136,27 @@
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="O10" t="n">
-        <v>88.29000000000001</v>
+        <v>88.67</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q10" t="n">
         <v>0.65</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_02_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_07_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1207,33 +1203,33 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="O11" t="n">
-        <v>88.29000000000001</v>
+        <v>88.65000000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="Q11" t="n">
         <v>0.18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_17_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_48_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1245,11 +1241,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1257,14 +1249,14 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1279,34 +1271,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>3</v>
+      </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="O12" t="n">
-        <v>88.18000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="P12" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.76</v>
+        <v>0.06</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_02_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_33_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1333,7 +1325,7 @@
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1349,7 +1341,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
@@ -1358,97 +1350,97 @@
         <v>0.2</v>
       </c>
       <c r="O13" t="n">
-        <v>88.17</v>
+        <v>88.36</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.49</v>
+        <v>0.74</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_44_13', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_54_33', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>128</v>
+      </c>
+      <c r="H14" t="n">
+        <v>200</v>
+      </c>
+      <c r="I14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
         <v>3</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MVSE</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>MPRW</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>acm</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NCEK</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>128</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>50</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>WL_0_0_1</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="O14" t="n">
-        <v>87.94</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="P14" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_15_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_17_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1468,14 +1460,14 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1490,34 +1482,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>3</v>
+      </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="O15" t="n">
-        <v>87.91</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="P15" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.24</v>
+        <v>0.65</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_51_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_02_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1544,7 +1536,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1560,33 +1552,33 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="O16" t="n">
-        <v>87.78</v>
+        <v>88.25</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.68</v>
+        <v>0.33</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_12_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_27_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1606,14 +1598,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1628,34 +1620,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="O17" t="n">
-        <v>87.52</v>
+        <v>88.18000000000001</v>
       </c>
       <c r="P17" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.27</v>
+        <v>0.42</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_21_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_41_30', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1679,14 +1671,14 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>128</v>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I18" t="n">
         <v>50</v>
@@ -1701,34 +1693,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>3</v>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="O18" t="n">
-        <v>87.48999999999999</v>
+        <v>88.18000000000001</v>
       </c>
       <c r="P18" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_23_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_02_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1748,14 +1740,14 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>128</v>
       </c>
       <c r="H19" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I19" t="n">
         <v>50</v>
@@ -1770,7 +1762,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
@@ -1778,26 +1772,24 @@
         <v>0.2</v>
       </c>
       <c r="O19" t="n">
-        <v>87.43000000000001</v>
+        <v>88.17</v>
       </c>
       <c r="P19" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.2</v>
+        <v>0.49</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_20_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S19" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_44_13', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1809,11 +1801,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1828,7 +1816,7 @@
         <v>128</v>
       </c>
       <c r="H20" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="I20" t="n">
         <v>50</v>
@@ -1844,33 +1832,33 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="O20" t="n">
-        <v>87.31</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="P20" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.93</v>
+        <v>0.78</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_04_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_14_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1894,14 +1882,14 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>128</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" t="n">
         <v>50</v>
@@ -1916,34 +1904,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>3</v>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="O21" t="n">
-        <v>86.95999999999999</v>
+        <v>87.94</v>
       </c>
       <c r="P21" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.97</v>
+        <v>0.15</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_50_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_15_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1963,14 +1951,14 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>128</v>
       </c>
       <c r="H22" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I22" t="n">
         <v>50</v>
@@ -1985,34 +1973,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="O22" t="n">
-        <v>86.86</v>
+        <v>87.91</v>
       </c>
       <c r="P22" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_41_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_51_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2024,11 +2012,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2036,14 +2020,14 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G23" t="n">
         <v>128</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I23" t="n">
         <v>50</v>
@@ -2058,34 +2042,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="O23" t="n">
-        <v>86.86</v>
+        <v>87.89</v>
       </c>
       <c r="P23" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.45</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_41_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S23" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_48_30', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2097,11 +2081,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2109,14 +2089,14 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G24" t="n">
         <v>128</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I24" t="n">
         <v>50</v>
@@ -2131,101 +2111,949 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.49</v>
+        <v>0.23</v>
       </c>
       <c r="O24" t="n">
-        <v>80.17</v>
+        <v>87.88</v>
       </c>
       <c r="P24" t="n">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.970000000000001</v>
+        <v>1.67</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_26_13', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_32_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>128</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I25" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O25" t="n">
+        <v>87.79000000000001</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_32_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>128</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I26" t="n">
+        <v>50</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O26" t="n">
+        <v>87.78</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_12_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>128</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="I27" t="n">
+        <v>50</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O27" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_48_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>128</v>
+      </c>
+      <c r="H28" t="n">
+        <v>500</v>
+      </c>
+      <c r="I28" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O28" t="n">
+        <v>87.52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_21_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>128</v>
+      </c>
+      <c r="H29" t="n">
+        <v>100</v>
+      </c>
+      <c r="I29" t="n">
+        <v>50</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>3</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O29" t="n">
+        <v>87.48999999999999</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_23_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>128</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I30" t="n">
+        <v>50</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>87.43000000000001</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_20_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>128</v>
+      </c>
+      <c r="H31" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" t="n">
+        <v>50</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O31" t="n">
+        <v>87.31</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_04_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>128</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I32" t="n">
+        <v>50</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O32" t="n">
+        <v>87.20999999999999</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_01_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>128</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>50</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O33" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_50_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>128</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I34" t="n">
+        <v>50</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O34" t="n">
+        <v>86.86</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_41_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>128</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>50</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O35" t="n">
+        <v>86.86</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_41_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S35" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>128</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>50</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O36" t="n">
+        <v>80.17</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_26_13', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MVSE</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>MPRW</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>moco</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>acm</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>NCEK</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>128</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="G37" t="n">
+        <v>128</v>
+      </c>
+      <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>50</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>WL_0_0_1</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="I37" t="n">
+        <v>50</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O37" t="n">
         <v>79.76000000000001</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P37" t="n">
         <v>0.59</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q37" t="n">
         <v>14.08</v>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_49_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S25" t="n">
+      <c r="S37" t="n">
         <v>8192</v>
       </c>
     </row>

--- a/results/MVSE/acm/MVSE_acm<l05>AllRes_89.49.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l05>AllRes_89.49.xlsx
@@ -539,7 +539,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>acm</t>
@@ -569,7 +573,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
@@ -608,7 +614,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>acm</t>
@@ -638,7 +648,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
@@ -677,7 +689,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>acm</t>
@@ -707,7 +723,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
@@ -780,7 +798,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
@@ -819,7 +839,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>acm</t>
@@ -849,7 +873,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
@@ -888,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>acm</t>
@@ -918,7 +948,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
@@ -957,7 +989,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>acm</t>
@@ -987,7 +1023,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
@@ -1060,7 +1098,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
@@ -1099,7 +1139,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1152,7 +1196,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_07_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1225,7 +1271,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_48_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1241,7 +1289,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1294,7 +1346,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_33_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1310,7 +1364,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1363,7 +1421,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_54_33', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1436,7 +1496,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_17_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1452,7 +1514,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1505,7 +1571,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_02_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1521,7 +1589,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1574,7 +1646,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_27_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1590,7 +1664,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1643,7 +1721,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_41_30', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1693,7 +1773,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
@@ -1732,7 +1814,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1785,7 +1871,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_44_13', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1801,7 +1889,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1854,7 +1946,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_14_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1904,7 +1998,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
@@ -1943,7 +2039,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1973,7 +2073,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
@@ -2012,7 +2114,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2065,7 +2171,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_48_30', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2081,7 +2189,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2111,7 +2223,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
@@ -2150,7 +2264,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2203,7 +2321,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-00_32_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2219,7 +2339,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2272,7 +2396,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_12_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2288,7 +2414,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2318,7 +2448,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
@@ -2357,7 +2489,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2387,7 +2523,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
@@ -2483,7 +2621,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_23_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr"/>
+      <c r="S29" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2499,7 +2639,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2529,7 +2673,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
@@ -2625,7 +2771,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_04_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2641,7 +2789,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2694,7 +2846,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_01_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2767,7 +2921,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_50_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2783,7 +2939,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>acm</t>
@@ -2836,7 +2996,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_41_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2886,7 +3048,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
@@ -2982,7 +3146,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_26_13', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3032,7 +3198,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
